--- a/biology/Zoologie/Émeraude_orvert/Émeraude_orvert.xlsx
+++ b/biology/Zoologie/Émeraude_orvert/Émeraude_orvert.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89meraude_orvert</t>
+          <t>Émeraude_orvert</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostilbon mellisugus
 L'Émeraude orvert (Chlorostilbon mellisugus) est une espèce de colibris (la famille des Trochilidae) présents au nord de l'Amérique du Sud et à Trinité-et-Tobago.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89meraude_orvert</t>
+          <t>Émeraude_orvert</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorostilbon mellisugus (Sibley et Monroe 1990, 1993) a été divisé en C. mellisugus et C. melanorhynchus après le South American Classification Committee de 2005.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89meraude_orvert</t>
+          <t>Émeraude_orvert</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une espèce d'environ 7,5 cm de longueur, de couleur vert doré, à bec étroit et court avec une queue bleu acier légèrement fourchue.
 Le mâle a sur le ventre des plumes vert émeraude iridescentes, la gorge très légèrement bleutée.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89meraude_orvert</t>
+          <t>Émeraude_orvert</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce se déplace à faible hauteur, entre 1 et 6 m du sol. Elle goûte une grande variété de fleurs, mais est handicapée par son bec trop court d'environ 1,5 cm. Elle perce donc parfois la corolle des fleurs ou utilise des trous créés par les insectes pour boire leur nectar. Elle complète son alimentation par des arthropodes qu'elle attrape au vol.
 </t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89meraude_orvert</t>
+          <t>Émeraude_orvert</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son aire de répartition inclut la Bolivie, le Brésil, la Colombie, l'Équateur, la Guyane, le Guyana, le Pérou, Trinité-et-Tobago et le Venezuela.
 </t>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89meraude_orvert</t>
+          <t>Émeraude_orvert</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,7 +659,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce habite les forêts tropicales et subtropicales humides de plaine et de montagne mais aussi les anciennes forêts fortement dégradées.
 C'est l'un des colibris les plus fréquents près des habitations humaines.
@@ -653,7 +675,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89meraude_orvert</t>
+          <t>Émeraude_orvert</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -671,7 +693,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des 6 sous-espèces suivantes :
 Chlorostilbon mellisugus caribaeus Lawrence, 1871 ;
